--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -685,13 +685,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1">
@@ -701,13 +701,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1">
@@ -735,10 +735,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="b">
         <v>1</v>
@@ -751,13 +751,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" customHeight="1">
@@ -1447,13 +1447,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>0.3752363139473532</v>
+        <v>119.4414283846072</v>
       </c>
       <c r="E6" s="2">
-        <v>0.1510079293817229</v>
+        <v>48.06731681434614</v>
       </c>
       <c r="F6" s="2">
-        <v>0.1004091122280227</v>
+        <v>31.96121308511738</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1479,13 +1479,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>0.1565870926103994</v>
+        <v>49.84321962666694</v>
       </c>
       <c r="E8" s="2">
-        <v>0.01020406946211497</v>
+        <v>3.248056189097312</v>
       </c>
       <c r="F8" s="2">
-        <v>0.006856913852035545</v>
+        <v>2.182623467813492</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>140.3074312451151</v>
+        <v>24.90150727043514</v>
       </c>
       <c r="E9" s="2">
-        <v>447.6876341609105</v>
+        <v>79.45478566610102</v>
       </c>
       <c r="F9" s="2">
-        <v>1182.311424004445</v>
+        <v>209.8344774720564</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1511,13 +1511,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1543,13 +1543,13 @@
         <v>17</v>
       </c>
       <c r="D12" s="2">
-        <v>0.1676728602397872</v>
+        <v>53.3719290590373</v>
       </c>
       <c r="E12" s="2">
-        <v>0.01756826084416689</v>
+        <v>5.59215110975391</v>
       </c>
       <c r="F12" s="2">
-        <v>0.01168743398152335</v>
+        <v>3.720225780439264</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1559,13 +1559,13 @@
         <v>18</v>
       </c>
       <c r="D13" s="2">
-        <v>137.4575598203743</v>
+        <v>24.39571728216994</v>
       </c>
       <c r="E13" s="2">
-        <v>380.3544390964252</v>
+        <v>67.5046128808068</v>
       </c>
       <c r="F13" s="2">
-        <v>1007.522474709127</v>
+        <v>178.8132532001552</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1575,13 +1575,13 @@
         <v>19</v>
       </c>
       <c r="D14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1677,13 +1677,13 @@
         <v>11</v>
       </c>
       <c r="D20" s="2">
-        <v>0.3752363139473532</v>
+        <v>119.4414283846072</v>
       </c>
       <c r="E20" s="2">
-        <v>0.1510079293817229</v>
+        <v>48.06731681434614</v>
       </c>
       <c r="F20" s="2">
-        <v>0.1004091122280227</v>
+        <v>31.96121308511738</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1709,13 +1709,13 @@
         <v>13</v>
       </c>
       <c r="D22" s="2">
-        <v>0.06233803357088941</v>
+        <v>19.84281237087113</v>
       </c>
       <c r="E22" s="2">
-        <v>0.004246745183520586</v>
+        <v>1.351780976017999</v>
       </c>
       <c r="F22" s="2">
-        <v>0.00277711378887272</v>
+        <v>0.8839827740555113</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>14</v>
       </c>
       <c r="D23" s="2">
-        <v>184.961582381052</v>
+        <v>32.82664465837629</v>
       </c>
       <c r="E23" s="2">
-        <v>582.3582867088754</v>
+        <v>103.3558877230467</v>
       </c>
       <c r="F23" s="2">
-        <v>1550.573621561014</v>
+        <v>275.1929813552968</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>15</v>
       </c>
       <c r="D24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2" t="b">
         <v>1</v>
@@ -1773,13 +1773,13 @@
         <v>17</v>
       </c>
       <c r="D26" s="2">
-        <v>0.07162893238459093</v>
+        <v>22.80019731480558</v>
       </c>
       <c r="E26" s="2">
-        <v>0.009783683812568705</v>
+        <v>3.11424328083694</v>
       </c>
       <c r="F26" s="2">
-        <v>0.006422746688014604</v>
+        <v>2.044423767249247</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1789,13 +1789,13 @@
         <v>18</v>
       </c>
       <c r="D27" s="2">
-        <v>177.4111529778297</v>
+        <v>31.48660820406486</v>
       </c>
       <c r="E27" s="2">
-        <v>453.3737778854745</v>
+        <v>80.46395209471737</v>
       </c>
       <c r="F27" s="2">
-        <v>1205.741629766621</v>
+        <v>213.9928277030956</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1805,10 +1805,10 @@
         <v>19</v>
       </c>
       <c r="D28" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2" t="b">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="2">
-        <v>1.484860181808472</v>
+        <v>1.484860181808471</v>
       </c>
       <c r="E36" s="2">
         <v>0.2978447079658508</v>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="71">
   <si>
     <t>init</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Rail-Maximum-Contact-Force (Design-Contact-Force); incl. factors [kN]</t>
+  </si>
+  <si>
+    <t>Wheel_Relative_Number_of_Rolling_Contacts v_c</t>
+  </si>
+  <si>
+    <t>Rail_Relative_Number_of_Rolling_Contacts v_c</t>
   </si>
   <si>
     <t>W250-FL</t>
@@ -648,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,22 +818,22 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -837,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -853,13 +859,13 @@
         <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -869,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1008,52 +1014,52 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5"/>
-      <c r="B22" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2">
-        <v>24.9397924881983</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>29.8460335067485</v>
+        <v>8</v>
       </c>
       <c r="F22" s="2">
-        <v>29.8460335067485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2">
-        <v>0.397534327540081</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>0.387456729691634</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>0.387456729691634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C24" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="2">
-        <v>310.534232585119</v>
+        <v>24.9397924881983</v>
       </c>
       <c r="E24" s="2">
-        <v>311.826319322442</v>
+        <v>29.8460335067485</v>
       </c>
       <c r="F24" s="2">
-        <v>311.826319322442</v>
+        <v>29.8460335067485</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1063,13 +1069,13 @@
         <v>50</v>
       </c>
       <c r="D25" s="2">
-        <v>0.2</v>
+        <v>0.397534327540081</v>
       </c>
       <c r="E25" s="2">
-        <v>0.278960201647951</v>
+        <v>0.387456729691634</v>
       </c>
       <c r="F25" s="2">
-        <v>0.278960201647951</v>
+        <v>0.387456729691634</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1079,13 +1085,13 @@
         <v>51</v>
       </c>
       <c r="D26" s="2">
-        <v>9592.88212951047</v>
+        <v>310.534232585119</v>
       </c>
       <c r="E26" s="2">
-        <v>13728.6250951821</v>
+        <v>311.826319322442</v>
       </c>
       <c r="F26" s="2">
-        <v>13728.6250951821</v>
+        <v>311.826319322442</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1095,13 +1101,13 @@
         <v>52</v>
       </c>
       <c r="D27" s="2">
-        <v>6.98593533053798</v>
+        <v>0.2</v>
       </c>
       <c r="E27" s="2">
-        <v>4.86670380638896</v>
+        <v>0.278960201647951</v>
       </c>
       <c r="F27" s="2">
-        <v>4.86670380638896</v>
+        <v>0.278960201647951</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1111,13 +1117,13 @@
         <v>53</v>
       </c>
       <c r="D28" s="2">
-        <v>0.360322324557323</v>
+        <v>9592.88212951047</v>
       </c>
       <c r="E28" s="2">
-        <v>0.432635531364102</v>
+        <v>13728.6250951821</v>
       </c>
       <c r="F28" s="2">
-        <v>0.432635531364102</v>
+        <v>13728.6250951821</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1127,13 +1133,13 @@
         <v>54</v>
       </c>
       <c r="D29" s="2">
-        <v>235.360704664796</v>
+        <v>6.98593533053798</v>
       </c>
       <c r="E29" s="2">
-        <v>208.806759033595</v>
+        <v>4.86670380638896</v>
       </c>
       <c r="F29" s="2">
-        <v>208.806759033595</v>
+        <v>4.86670380638896</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1143,13 +1149,13 @@
         <v>55</v>
       </c>
       <c r="D30" s="2">
-        <v>3620.84483241631</v>
+        <v>0.360322324557323</v>
       </c>
       <c r="E30" s="2">
-        <v>2311.15858694705</v>
+        <v>0.432635531364102</v>
       </c>
       <c r="F30" s="2">
-        <v>2311.15858694705</v>
+        <v>0.432635531364102</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1159,13 +1165,13 @@
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <v>1.13373577673032</v>
+        <v>235.360704664796</v>
       </c>
       <c r="E31" s="2">
-        <v>2.42581799694202</v>
+        <v>208.806759033595</v>
       </c>
       <c r="F31" s="2">
-        <v>2.42581799694202</v>
+        <v>208.806759033595</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1175,13 +1181,13 @@
         <v>57</v>
       </c>
       <c r="D32" s="2">
-        <v>0.675758774397529</v>
+        <v>3620.84483241631</v>
       </c>
       <c r="E32" s="2">
-        <v>0.517120004340175</v>
+        <v>2311.15858694705</v>
       </c>
       <c r="F32" s="2">
-        <v>0.517120004340175</v>
+        <v>2311.15858694705</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1191,13 +1197,13 @@
         <v>58</v>
       </c>
       <c r="D33" s="2">
-        <v>3.8387980542433</v>
+        <v>1.13373577673032</v>
       </c>
       <c r="E33" s="2">
-        <v>1.87763390038708</v>
+        <v>2.42581799694202</v>
       </c>
       <c r="F33" s="2">
-        <v>1.87763390038708</v>
+        <v>2.42581799694202</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1207,13 +1213,13 @@
         <v>59</v>
       </c>
       <c r="D34" s="2">
-        <v>1.2</v>
+        <v>0.675758774397529</v>
       </c>
       <c r="E34" s="2">
-        <v>3.2</v>
+        <v>0.517120004340175</v>
       </c>
       <c r="F34" s="2">
-        <v>3.1</v>
+        <v>0.517120004340175</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1223,13 +1229,13 @@
         <v>60</v>
       </c>
       <c r="D35" s="2">
-        <v>2351.03585576092</v>
+        <v>3.8387980542433</v>
       </c>
       <c r="E35" s="2">
-        <v>2600</v>
+        <v>1.87763390038708</v>
       </c>
       <c r="F35" s="2">
-        <v>2600</v>
+        <v>1.87763390038708</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1239,13 +1245,13 @@
         <v>61</v>
       </c>
       <c r="D36" s="2">
-        <v>479.564279785433</v>
+        <v>1.2</v>
       </c>
       <c r="E36" s="2">
-        <v>342.07526272382</v>
+        <v>3.2</v>
       </c>
       <c r="F36" s="2">
-        <v>342.07526272382</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1255,13 +1261,13 @@
         <v>62</v>
       </c>
       <c r="D37" s="2">
-        <v>1.5209241133552</v>
+        <v>2351.03585576092</v>
       </c>
       <c r="E37" s="2">
-        <v>1.4611356146706</v>
+        <v>2600</v>
       </c>
       <c r="F37" s="2">
-        <v>1.4611356146706</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1271,13 +1277,13 @@
         <v>63</v>
       </c>
       <c r="D38" s="2">
-        <v>148.023377589456</v>
+        <v>479.564279785433</v>
       </c>
       <c r="E38" s="2">
-        <v>90</v>
+        <v>342.07526272382</v>
       </c>
       <c r="F38" s="2">
-        <v>90</v>
+        <v>342.07526272382</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1287,13 +1293,13 @@
         <v>64</v>
       </c>
       <c r="D39" s="2">
-        <v>4000000</v>
+        <v>1.5209241133552</v>
       </c>
       <c r="E39" s="2">
-        <v>4000000</v>
+        <v>1.4611356146706</v>
       </c>
       <c r="F39" s="2">
-        <v>4000000</v>
+        <v>1.4611356146706</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1303,13 +1309,13 @@
         <v>65</v>
       </c>
       <c r="D40" s="2">
-        <v>12000000</v>
+        <v>148.023377589456</v>
       </c>
       <c r="E40" s="2">
-        <v>13000000</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2">
-        <v>13000000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1319,12 +1325,44 @@
         <v>66</v>
       </c>
       <c r="D41" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F41" s="2">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="5"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="F42" s="2">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="2">
         <v>1</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E43" s="2">
         <v>2</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F43" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1334,9 +1372,9 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A1:A9"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="B22:B41"/>
-    <mergeCell ref="A10:A41"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B43"/>
+    <mergeCell ref="A10:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1344,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1488,7 @@
         <v>119.4414283846072</v>
       </c>
       <c r="E6" s="2">
-        <v>48.06731681434614</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2">
         <v>31.96121308511738</v>
@@ -1482,7 +1520,7 @@
         <v>49.84321962666694</v>
       </c>
       <c r="E8" s="2">
-        <v>3.248056189097312</v>
+        <v>0.5405845642089844</v>
       </c>
       <c r="F8" s="2">
         <v>2.182623467813492</v>
@@ -1498,7 +1536,7 @@
         <v>24.90150727043514</v>
       </c>
       <c r="E9" s="2">
-        <v>79.45478566610102</v>
+        <v>136.0655020108048</v>
       </c>
       <c r="F9" s="2">
         <v>209.8344774720564</v>
@@ -1546,7 +1584,7 @@
         <v>53.3719290590373</v>
       </c>
       <c r="E12" s="2">
-        <v>5.59215110975391</v>
+        <v>0.9307199120521544</v>
       </c>
       <c r="F12" s="2">
         <v>3.720225780439264</v>
@@ -1562,7 +1600,7 @@
         <v>24.39571728216994</v>
       </c>
       <c r="E13" s="2">
-        <v>67.5046128808068</v>
+        <v>115.6009542115067</v>
       </c>
       <c r="F13" s="2">
         <v>178.8132532001552</v>
@@ -1680,7 +1718,7 @@
         <v>119.4414283846072</v>
       </c>
       <c r="E20" s="2">
-        <v>48.06731681434614</v>
+        <v>8</v>
       </c>
       <c r="F20" s="2">
         <v>31.96121308511738</v>
@@ -1712,7 +1750,7 @@
         <v>19.84281237087113</v>
       </c>
       <c r="E22" s="2">
-        <v>1.351780976017999</v>
+        <v>0.2249813079833984</v>
       </c>
       <c r="F22" s="2">
         <v>0.8839827740555113</v>
@@ -1728,7 +1766,7 @@
         <v>32.82664465837629</v>
       </c>
       <c r="E23" s="2">
-        <v>103.3558877230467</v>
+        <v>176.9958930844957</v>
       </c>
       <c r="F23" s="2">
         <v>275.1929813552968</v>
@@ -1776,7 +1814,7 @@
         <v>22.80019731480558</v>
       </c>
       <c r="E26" s="2">
-        <v>3.11424328083694</v>
+        <v>0.5183136463165283</v>
       </c>
       <c r="F26" s="2">
         <v>2.044423767249247</v>
@@ -1792,7 +1830,7 @@
         <v>31.48660820406486</v>
       </c>
       <c r="E27" s="2">
-        <v>80.46395209471737</v>
+        <v>137.7936891246582</v>
       </c>
       <c r="F27" s="2">
         <v>213.9928277030956</v>
@@ -2046,22 +2084,22 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2071,13 +2109,13 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2087,13 +2125,13 @@
         <v>26</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2103,13 +2141,13 @@
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2242,52 +2280,52 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="5"/>
-      <c r="B55" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="B55" s="6"/>
       <c r="C55" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D55" s="2">
-        <v>24.9397924881983</v>
+        <v>0</v>
       </c>
       <c r="E55" s="2">
-        <v>29.8460335067485</v>
+        <v>8</v>
       </c>
       <c r="F55" s="2">
-        <v>29.8460335067485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5"/>
-      <c r="B56" s="7"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D56" s="2">
-        <v>0.397534327540081</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2">
-        <v>0.387456729691634</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2">
-        <v>0.387456729691634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5"/>
-      <c r="B57" s="7"/>
+      <c r="B57" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C57" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="2">
-        <v>310.534232585119</v>
+        <v>24.9397924881983</v>
       </c>
       <c r="E57" s="2">
-        <v>311.826319322442</v>
+        <v>29.8460335067485</v>
       </c>
       <c r="F57" s="2">
-        <v>311.826319322442</v>
+        <v>29.8460335067485</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2297,13 +2335,13 @@
         <v>50</v>
       </c>
       <c r="D58" s="2">
-        <v>0.2</v>
+        <v>0.397534327540081</v>
       </c>
       <c r="E58" s="2">
-        <v>0.278960201647951</v>
+        <v>0.387456729691634</v>
       </c>
       <c r="F58" s="2">
-        <v>0.278960201647951</v>
+        <v>0.387456729691634</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2313,13 +2351,13 @@
         <v>51</v>
       </c>
       <c r="D59" s="2">
-        <v>9592.88212951047</v>
+        <v>310.534232585119</v>
       </c>
       <c r="E59" s="2">
-        <v>13728.6250951821</v>
+        <v>311.826319322442</v>
       </c>
       <c r="F59" s="2">
-        <v>13728.6250951821</v>
+        <v>311.826319322442</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2329,13 +2367,13 @@
         <v>52</v>
       </c>
       <c r="D60" s="2">
-        <v>6.98593533053798</v>
+        <v>0.2</v>
       </c>
       <c r="E60" s="2">
-        <v>4.86670380638896</v>
+        <v>0.278960201647951</v>
       </c>
       <c r="F60" s="2">
-        <v>4.86670380638896</v>
+        <v>0.278960201647951</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2345,13 +2383,13 @@
         <v>53</v>
       </c>
       <c r="D61" s="2">
-        <v>0.360322324557323</v>
+        <v>9592.88212951047</v>
       </c>
       <c r="E61" s="2">
-        <v>0.432635531364102</v>
+        <v>13728.6250951821</v>
       </c>
       <c r="F61" s="2">
-        <v>0.432635531364102</v>
+        <v>13728.6250951821</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2361,13 +2399,13 @@
         <v>54</v>
       </c>
       <c r="D62" s="2">
-        <v>235.360704664796</v>
+        <v>6.98593533053798</v>
       </c>
       <c r="E62" s="2">
-        <v>208.806759033595</v>
+        <v>4.86670380638896</v>
       </c>
       <c r="F62" s="2">
-        <v>208.806759033595</v>
+        <v>4.86670380638896</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2377,13 +2415,13 @@
         <v>55</v>
       </c>
       <c r="D63" s="2">
-        <v>3620.84483241631</v>
+        <v>0.360322324557323</v>
       </c>
       <c r="E63" s="2">
-        <v>2311.15858694705</v>
+        <v>0.432635531364102</v>
       </c>
       <c r="F63" s="2">
-        <v>2311.15858694705</v>
+        <v>0.432635531364102</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2393,13 +2431,13 @@
         <v>56</v>
       </c>
       <c r="D64" s="2">
-        <v>1.13373577673032</v>
+        <v>235.360704664796</v>
       </c>
       <c r="E64" s="2">
-        <v>2.42581799694202</v>
+        <v>208.806759033595</v>
       </c>
       <c r="F64" s="2">
-        <v>2.42581799694202</v>
+        <v>208.806759033595</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2409,13 +2447,13 @@
         <v>57</v>
       </c>
       <c r="D65" s="2">
-        <v>0.675758774397529</v>
+        <v>3620.84483241631</v>
       </c>
       <c r="E65" s="2">
-        <v>0.517120004340175</v>
+        <v>2311.15858694705</v>
       </c>
       <c r="F65" s="2">
-        <v>0.517120004340175</v>
+        <v>2311.15858694705</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2425,13 +2463,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="2">
-        <v>3.8387980542433</v>
+        <v>1.13373577673032</v>
       </c>
       <c r="E66" s="2">
-        <v>1.87763390038708</v>
+        <v>2.42581799694202</v>
       </c>
       <c r="F66" s="2">
-        <v>1.87763390038708</v>
+        <v>2.42581799694202</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2441,13 +2479,13 @@
         <v>59</v>
       </c>
       <c r="D67" s="2">
-        <v>1.2</v>
+        <v>0.675758774397529</v>
       </c>
       <c r="E67" s="2">
-        <v>3.2</v>
+        <v>0.517120004340175</v>
       </c>
       <c r="F67" s="2">
-        <v>3.1</v>
+        <v>0.517120004340175</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2457,13 +2495,13 @@
         <v>60</v>
       </c>
       <c r="D68" s="2">
-        <v>2351.03585576092</v>
+        <v>3.8387980542433</v>
       </c>
       <c r="E68" s="2">
-        <v>2600</v>
+        <v>1.87763390038708</v>
       </c>
       <c r="F68" s="2">
-        <v>2600</v>
+        <v>1.87763390038708</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2473,13 +2511,13 @@
         <v>61</v>
       </c>
       <c r="D69" s="2">
-        <v>479.564279785433</v>
+        <v>1.2</v>
       </c>
       <c r="E69" s="2">
-        <v>342.07526272382</v>
+        <v>3.2</v>
       </c>
       <c r="F69" s="2">
-        <v>342.07526272382</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2489,13 +2527,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="2">
-        <v>1.5209241133552</v>
+        <v>2351.03585576092</v>
       </c>
       <c r="E70" s="2">
-        <v>1.4611356146706</v>
+        <v>2600</v>
       </c>
       <c r="F70" s="2">
-        <v>1.4611356146706</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2505,13 +2543,13 @@
         <v>63</v>
       </c>
       <c r="D71" s="2">
-        <v>148.023377589456</v>
+        <v>479.564279785433</v>
       </c>
       <c r="E71" s="2">
-        <v>90</v>
+        <v>342.07526272382</v>
       </c>
       <c r="F71" s="2">
-        <v>90</v>
+        <v>342.07526272382</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2521,13 +2559,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="2">
-        <v>4000000</v>
+        <v>1.5209241133552</v>
       </c>
       <c r="E72" s="2">
-        <v>4000000</v>
+        <v>1.4611356146706</v>
       </c>
       <c r="F72" s="2">
-        <v>4000000</v>
+        <v>1.4611356146706</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2537,13 +2575,13 @@
         <v>65</v>
       </c>
       <c r="D73" s="2">
-        <v>12000000</v>
+        <v>148.023377589456</v>
       </c>
       <c r="E73" s="2">
-        <v>13000000</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2">
-        <v>13000000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2553,12 +2591,44 @@
         <v>66</v>
       </c>
       <c r="D74" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="E74" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F74" s="2">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="5"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="E75" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="F75" s="2">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="5"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="2">
         <v>1</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E76" s="2">
         <v>2</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F76" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2573,9 +2643,9 @@
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B42"/>
     <mergeCell ref="A29:A42"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="B55:B74"/>
-    <mergeCell ref="A43:A74"/>
+    <mergeCell ref="B43:B56"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="A43:A76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="72">
   <si>
     <t>init</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Rail_Relative_Number_of_Rolling_Contacts v_c</t>
+  </si>
+  <si>
+    <t>Dynamic_Factor</t>
   </si>
   <si>
     <t>W250-FL</t>
@@ -654,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -818,22 +821,22 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -843,13 +846,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -859,13 +862,13 @@
         <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -875,13 +878,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1046,36 +1049,36 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5"/>
-      <c r="B24" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2">
-        <v>24.9397924881983</v>
+        <v>1.1</v>
       </c>
       <c r="E24" s="2">
-        <v>29.8460335067485</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>29.8460335067485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2">
-        <v>0.397534327540081</v>
+        <v>24.9397924881983</v>
       </c>
       <c r="E25" s="2">
-        <v>0.387456729691634</v>
+        <v>29.8460335067485</v>
       </c>
       <c r="F25" s="2">
-        <v>0.387456729691634</v>
+        <v>29.8460335067485</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1085,13 +1088,13 @@
         <v>51</v>
       </c>
       <c r="D26" s="2">
-        <v>310.534232585119</v>
+        <v>0.397534327540081</v>
       </c>
       <c r="E26" s="2">
-        <v>311.826319322442</v>
+        <v>0.387456729691634</v>
       </c>
       <c r="F26" s="2">
-        <v>311.826319322442</v>
+        <v>0.387456729691634</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1101,13 +1104,13 @@
         <v>52</v>
       </c>
       <c r="D27" s="2">
-        <v>0.2</v>
+        <v>310.534232585119</v>
       </c>
       <c r="E27" s="2">
-        <v>0.278960201647951</v>
+        <v>311.826319322442</v>
       </c>
       <c r="F27" s="2">
-        <v>0.278960201647951</v>
+        <v>311.826319322442</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1117,13 +1120,13 @@
         <v>53</v>
       </c>
       <c r="D28" s="2">
-        <v>9592.88212951047</v>
+        <v>0.2</v>
       </c>
       <c r="E28" s="2">
-        <v>13728.6250951821</v>
+        <v>0.278960201647951</v>
       </c>
       <c r="F28" s="2">
-        <v>13728.6250951821</v>
+        <v>0.278960201647951</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1133,13 +1136,13 @@
         <v>54</v>
       </c>
       <c r="D29" s="2">
-        <v>6.98593533053798</v>
+        <v>9592.88212951047</v>
       </c>
       <c r="E29" s="2">
-        <v>4.86670380638896</v>
+        <v>13728.6250951821</v>
       </c>
       <c r="F29" s="2">
-        <v>4.86670380638896</v>
+        <v>13728.6250951821</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1149,13 +1152,13 @@
         <v>55</v>
       </c>
       <c r="D30" s="2">
-        <v>0.360322324557323</v>
+        <v>6.98593533053798</v>
       </c>
       <c r="E30" s="2">
-        <v>0.432635531364102</v>
+        <v>4.86670380638896</v>
       </c>
       <c r="F30" s="2">
-        <v>0.432635531364102</v>
+        <v>4.86670380638896</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1165,13 +1168,13 @@
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <v>235.360704664796</v>
+        <v>0.360322324557323</v>
       </c>
       <c r="E31" s="2">
-        <v>208.806759033595</v>
+        <v>0.432635531364102</v>
       </c>
       <c r="F31" s="2">
-        <v>208.806759033595</v>
+        <v>0.432635531364102</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1181,13 +1184,13 @@
         <v>57</v>
       </c>
       <c r="D32" s="2">
-        <v>3620.84483241631</v>
+        <v>235.360704664796</v>
       </c>
       <c r="E32" s="2">
-        <v>2311.15858694705</v>
+        <v>208.806759033595</v>
       </c>
       <c r="F32" s="2">
-        <v>2311.15858694705</v>
+        <v>208.806759033595</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1197,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="D33" s="2">
-        <v>1.13373577673032</v>
+        <v>3620.84483241631</v>
       </c>
       <c r="E33" s="2">
-        <v>2.42581799694202</v>
+        <v>2311.15858694705</v>
       </c>
       <c r="F33" s="2">
-        <v>2.42581799694202</v>
+        <v>2311.15858694705</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1213,13 +1216,13 @@
         <v>59</v>
       </c>
       <c r="D34" s="2">
-        <v>0.675758774397529</v>
+        <v>1.13373577673032</v>
       </c>
       <c r="E34" s="2">
-        <v>0.517120004340175</v>
+        <v>2.42581799694202</v>
       </c>
       <c r="F34" s="2">
-        <v>0.517120004340175</v>
+        <v>2.42581799694202</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1229,13 +1232,13 @@
         <v>60</v>
       </c>
       <c r="D35" s="2">
-        <v>3.8387980542433</v>
+        <v>0.675758774397529</v>
       </c>
       <c r="E35" s="2">
-        <v>1.87763390038708</v>
+        <v>0.517120004340175</v>
       </c>
       <c r="F35" s="2">
-        <v>1.87763390038708</v>
+        <v>0.517120004340175</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1245,13 +1248,13 @@
         <v>61</v>
       </c>
       <c r="D36" s="2">
-        <v>1.2</v>
+        <v>3.8387980542433</v>
       </c>
       <c r="E36" s="2">
-        <v>3.2</v>
+        <v>1.87763390038708</v>
       </c>
       <c r="F36" s="2">
-        <v>3.1</v>
+        <v>1.87763390038708</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1261,13 +1264,13 @@
         <v>62</v>
       </c>
       <c r="D37" s="2">
-        <v>2351.03585576092</v>
+        <v>1.2</v>
       </c>
       <c r="E37" s="2">
-        <v>2600</v>
+        <v>3.2</v>
       </c>
       <c r="F37" s="2">
-        <v>2600</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1277,13 +1280,13 @@
         <v>63</v>
       </c>
       <c r="D38" s="2">
-        <v>479.564279785433</v>
+        <v>2351.03585576092</v>
       </c>
       <c r="E38" s="2">
-        <v>342.07526272382</v>
+        <v>2600</v>
       </c>
       <c r="F38" s="2">
-        <v>342.07526272382</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1293,13 +1296,13 @@
         <v>64</v>
       </c>
       <c r="D39" s="2">
-        <v>1.5209241133552</v>
+        <v>479.564279785433</v>
       </c>
       <c r="E39" s="2">
-        <v>1.4611356146706</v>
+        <v>342.07526272382</v>
       </c>
       <c r="F39" s="2">
-        <v>1.4611356146706</v>
+        <v>342.07526272382</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1309,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="D40" s="2">
-        <v>148.023377589456</v>
+        <v>1.5209241133552</v>
       </c>
       <c r="E40" s="2">
-        <v>90</v>
+        <v>1.4611356146706</v>
       </c>
       <c r="F40" s="2">
-        <v>90</v>
+        <v>1.4611356146706</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1325,13 +1328,13 @@
         <v>66</v>
       </c>
       <c r="D41" s="2">
-        <v>4000000</v>
+        <v>148.023377589456</v>
       </c>
       <c r="E41" s="2">
-        <v>4000000</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2">
-        <v>4000000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1341,13 +1344,13 @@
         <v>67</v>
       </c>
       <c r="D42" s="2">
-        <v>12000000</v>
+        <v>4000000</v>
       </c>
       <c r="E42" s="2">
-        <v>13000000</v>
+        <v>4000000</v>
       </c>
       <c r="F42" s="2">
-        <v>13000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1357,12 +1360,28 @@
         <v>68</v>
       </c>
       <c r="D43" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="F43" s="2">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="2">
         <v>1</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E44" s="2">
         <v>2</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F44" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1372,9 +1391,9 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A1:A9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B43"/>
-    <mergeCell ref="A10:A43"/>
+    <mergeCell ref="B10:B24"/>
+    <mergeCell ref="B25:B44"/>
+    <mergeCell ref="A10:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1382,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1501,7 +1520,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>0.4173026084899902</v>
+        <v>0.4590328693389893</v>
       </c>
       <c r="E7" s="2">
         <v>0.06757307052612305</v>
@@ -1517,7 +1536,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>49.84321962666694</v>
+        <v>54.82754158933363</v>
       </c>
       <c r="E8" s="2">
         <v>0.5405845642089844</v>
@@ -1533,7 +1552,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>24.90150727043514</v>
+        <v>24.19958007275333</v>
       </c>
       <c r="E9" s="2">
         <v>136.0655020108048</v>
@@ -1565,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="2">
-        <v>0.4468460381031036</v>
+        <v>0.491530641913414</v>
       </c>
       <c r="E11" s="2">
         <v>0.1163399890065193</v>
@@ -1581,7 +1600,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="2">
-        <v>53.3719290590373</v>
+        <v>58.70912196494103</v>
       </c>
       <c r="E12" s="2">
         <v>0.9307199120521544</v>
@@ -1597,7 +1616,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="2">
-        <v>24.39571728216994</v>
+        <v>23.70804736398622</v>
       </c>
       <c r="E13" s="2">
         <v>115.6009542115067</v>
@@ -1731,7 +1750,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="2">
-        <v>0.1661300659179688</v>
+        <v>0.1827430725097657</v>
       </c>
       <c r="E21" s="2">
         <v>0.0281226634979248</v>
@@ -1747,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="2">
-        <v>19.84281237087113</v>
+        <v>21.82709360795825</v>
       </c>
       <c r="E22" s="2">
         <v>0.2249813079833984</v>
@@ -1763,7 +1782,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="2">
-        <v>32.82664465837629</v>
+        <v>31.90132257067649</v>
       </c>
       <c r="E23" s="2">
         <v>176.9958930844957</v>
@@ -1795,7 +1814,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="2">
-        <v>0.1908901929855347</v>
+        <v>0.2099792122840881</v>
       </c>
       <c r="E25" s="2">
         <v>0.06478920578956604</v>
@@ -1811,7 +1830,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="2">
-        <v>22.80019731480558</v>
+        <v>25.08021704628614</v>
       </c>
       <c r="E26" s="2">
         <v>0.5183136463165283</v>
@@ -1827,7 +1846,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="2">
-        <v>31.48660820406486</v>
+        <v>30.59905925286444</v>
       </c>
       <c r="E27" s="2">
         <v>137.7936891246582</v>
@@ -1961,7 +1980,7 @@
         <v>12</v>
       </c>
       <c r="D35" s="2">
-        <v>0.1979813575744629</v>
+        <v>0.2177794933319092</v>
       </c>
       <c r="E35" s="2">
         <v>0.03665781021118164</v>
@@ -1977,7 +1996,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="2">
-        <v>1.484860181808471</v>
+        <v>1.633346199989319</v>
       </c>
       <c r="E36" s="2">
         <v>0.2978447079658508</v>
@@ -1993,7 +2012,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="2">
-        <v>56.95944487714801</v>
+        <v>55.35386401451498</v>
       </c>
       <c r="E37" s="2">
         <v>129.7101939713239</v>
@@ -2025,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="D39" s="2">
-        <v>0.2761687934398651</v>
+        <v>0.3037856727838517</v>
       </c>
       <c r="E39" s="2">
         <v>0.1420809924602509</v>
@@ -2041,7 +2060,7 @@
         <v>17</v>
       </c>
       <c r="D40" s="2">
-        <v>2.071265950798988</v>
+        <v>2.278392545878888</v>
       </c>
       <c r="E40" s="2">
         <v>1.154408063739538</v>
@@ -2057,7 +2076,7 @@
         <v>18</v>
       </c>
       <c r="D41" s="2">
-        <v>51.54667501729854</v>
+        <v>50.09367007459512</v>
       </c>
       <c r="E41" s="2">
         <v>86.38995935762931</v>
@@ -2084,22 +2103,22 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2109,13 +2128,13 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2125,13 +2144,13 @@
         <v>26</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2141,13 +2160,13 @@
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2312,36 +2331,36 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5"/>
-      <c r="B57" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="B57" s="6"/>
       <c r="C57" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D57" s="2">
-        <v>24.9397924881983</v>
+        <v>1.1</v>
       </c>
       <c r="E57" s="2">
-        <v>29.8460335067485</v>
+        <v>1</v>
       </c>
       <c r="F57" s="2">
-        <v>29.8460335067485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5"/>
-      <c r="B58" s="7"/>
+      <c r="B58" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="C58" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="2">
-        <v>0.397534327540081</v>
+        <v>24.9397924881983</v>
       </c>
       <c r="E58" s="2">
-        <v>0.387456729691634</v>
+        <v>29.8460335067485</v>
       </c>
       <c r="F58" s="2">
-        <v>0.387456729691634</v>
+        <v>29.8460335067485</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2351,13 +2370,13 @@
         <v>51</v>
       </c>
       <c r="D59" s="2">
-        <v>310.534232585119</v>
+        <v>0.397534327540081</v>
       </c>
       <c r="E59" s="2">
-        <v>311.826319322442</v>
+        <v>0.387456729691634</v>
       </c>
       <c r="F59" s="2">
-        <v>311.826319322442</v>
+        <v>0.387456729691634</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2367,13 +2386,13 @@
         <v>52</v>
       </c>
       <c r="D60" s="2">
-        <v>0.2</v>
+        <v>310.534232585119</v>
       </c>
       <c r="E60" s="2">
-        <v>0.278960201647951</v>
+        <v>311.826319322442</v>
       </c>
       <c r="F60" s="2">
-        <v>0.278960201647951</v>
+        <v>311.826319322442</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,13 +2402,13 @@
         <v>53</v>
       </c>
       <c r="D61" s="2">
-        <v>9592.88212951047</v>
+        <v>0.2</v>
       </c>
       <c r="E61" s="2">
-        <v>13728.6250951821</v>
+        <v>0.278960201647951</v>
       </c>
       <c r="F61" s="2">
-        <v>13728.6250951821</v>
+        <v>0.278960201647951</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2399,13 +2418,13 @@
         <v>54</v>
       </c>
       <c r="D62" s="2">
-        <v>6.98593533053798</v>
+        <v>9592.88212951047</v>
       </c>
       <c r="E62" s="2">
-        <v>4.86670380638896</v>
+        <v>13728.6250951821</v>
       </c>
       <c r="F62" s="2">
-        <v>4.86670380638896</v>
+        <v>13728.6250951821</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2415,13 +2434,13 @@
         <v>55</v>
       </c>
       <c r="D63" s="2">
-        <v>0.360322324557323</v>
+        <v>6.98593533053798</v>
       </c>
       <c r="E63" s="2">
-        <v>0.432635531364102</v>
+        <v>4.86670380638896</v>
       </c>
       <c r="F63" s="2">
-        <v>0.432635531364102</v>
+        <v>4.86670380638896</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2431,13 +2450,13 @@
         <v>56</v>
       </c>
       <c r="D64" s="2">
-        <v>235.360704664796</v>
+        <v>0.360322324557323</v>
       </c>
       <c r="E64" s="2">
-        <v>208.806759033595</v>
+        <v>0.432635531364102</v>
       </c>
       <c r="F64" s="2">
-        <v>208.806759033595</v>
+        <v>0.432635531364102</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2447,13 +2466,13 @@
         <v>57</v>
       </c>
       <c r="D65" s="2">
-        <v>3620.84483241631</v>
+        <v>235.360704664796</v>
       </c>
       <c r="E65" s="2">
-        <v>2311.15858694705</v>
+        <v>208.806759033595</v>
       </c>
       <c r="F65" s="2">
-        <v>2311.15858694705</v>
+        <v>208.806759033595</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2463,13 +2482,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="2">
-        <v>1.13373577673032</v>
+        <v>3620.84483241631</v>
       </c>
       <c r="E66" s="2">
-        <v>2.42581799694202</v>
+        <v>2311.15858694705</v>
       </c>
       <c r="F66" s="2">
-        <v>2.42581799694202</v>
+        <v>2311.15858694705</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2479,13 +2498,13 @@
         <v>59</v>
       </c>
       <c r="D67" s="2">
-        <v>0.675758774397529</v>
+        <v>1.13373577673032</v>
       </c>
       <c r="E67" s="2">
-        <v>0.517120004340175</v>
+        <v>2.42581799694202</v>
       </c>
       <c r="F67" s="2">
-        <v>0.517120004340175</v>
+        <v>2.42581799694202</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2495,13 +2514,13 @@
         <v>60</v>
       </c>
       <c r="D68" s="2">
-        <v>3.8387980542433</v>
+        <v>0.675758774397529</v>
       </c>
       <c r="E68" s="2">
-        <v>1.87763390038708</v>
+        <v>0.517120004340175</v>
       </c>
       <c r="F68" s="2">
-        <v>1.87763390038708</v>
+        <v>0.517120004340175</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2511,13 +2530,13 @@
         <v>61</v>
       </c>
       <c r="D69" s="2">
-        <v>1.2</v>
+        <v>3.8387980542433</v>
       </c>
       <c r="E69" s="2">
-        <v>3.2</v>
+        <v>1.87763390038708</v>
       </c>
       <c r="F69" s="2">
-        <v>3.1</v>
+        <v>1.87763390038708</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2527,13 +2546,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="2">
-        <v>2351.03585576092</v>
+        <v>1.2</v>
       </c>
       <c r="E70" s="2">
-        <v>2600</v>
+        <v>3.2</v>
       </c>
       <c r="F70" s="2">
-        <v>2600</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2543,13 +2562,13 @@
         <v>63</v>
       </c>
       <c r="D71" s="2">
-        <v>479.564279785433</v>
+        <v>2351.03585576092</v>
       </c>
       <c r="E71" s="2">
-        <v>342.07526272382</v>
+        <v>2600</v>
       </c>
       <c r="F71" s="2">
-        <v>342.07526272382</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2559,13 +2578,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="2">
-        <v>1.5209241133552</v>
+        <v>479.564279785433</v>
       </c>
       <c r="E72" s="2">
-        <v>1.4611356146706</v>
+        <v>342.07526272382</v>
       </c>
       <c r="F72" s="2">
-        <v>1.4611356146706</v>
+        <v>342.07526272382</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2575,13 +2594,13 @@
         <v>65</v>
       </c>
       <c r="D73" s="2">
-        <v>148.023377589456</v>
+        <v>1.5209241133552</v>
       </c>
       <c r="E73" s="2">
-        <v>90</v>
+        <v>1.4611356146706</v>
       </c>
       <c r="F73" s="2">
-        <v>90</v>
+        <v>1.4611356146706</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2591,13 +2610,13 @@
         <v>66</v>
       </c>
       <c r="D74" s="2">
-        <v>4000000</v>
+        <v>148.023377589456</v>
       </c>
       <c r="E74" s="2">
-        <v>4000000</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2">
-        <v>4000000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2607,13 +2626,13 @@
         <v>67</v>
       </c>
       <c r="D75" s="2">
-        <v>12000000</v>
+        <v>4000000</v>
       </c>
       <c r="E75" s="2">
-        <v>13000000</v>
+        <v>4000000</v>
       </c>
       <c r="F75" s="2">
-        <v>13000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2623,12 +2642,28 @@
         <v>68</v>
       </c>
       <c r="D76" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="E76" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="F76" s="2">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="5"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="2">
         <v>1</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E77" s="2">
         <v>2</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F77" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2643,9 +2678,9 @@
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B42"/>
     <mergeCell ref="A29:A42"/>
-    <mergeCell ref="B43:B56"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="A43:A76"/>
+    <mergeCell ref="B43:B57"/>
+    <mergeCell ref="B58:B77"/>
+    <mergeCell ref="A43:A77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -15,9 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
   <si>
     <t>init</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
   </si>
   <si>
     <t>Front Wheel</t>
@@ -657,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,29 +687,31 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="b">
-        <v>0</v>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="b">
         <v>0</v>
@@ -707,7 +727,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>0</v>
@@ -721,11 +741,9 @@
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>0</v>
@@ -739,9 +757,11 @@
     </row>
     <row r="5" spans="1:6" ht="27" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>0</v>
@@ -750,14 +770,14 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>0</v>
@@ -766,16 +786,14 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
@@ -789,9 +807,11 @@
     </row>
     <row r="8" spans="1:6" ht="27" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C8" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>0</v>
@@ -800,14 +820,14 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>0</v>
@@ -816,98 +836,98 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -923,55 +943,55 @@
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>0.005</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2">
-        <v>0.005</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -987,26 +1007,26 @@
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="E21" s="2">
         <v>15000</v>
@@ -1019,29 +1039,29 @@
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E22" s="2">
-        <v>8</v>
+        <v>15000</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -1051,349 +1071,365 @@
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5"/>
-      <c r="B25" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2">
-        <v>24.9397924881983</v>
+        <v>1.1</v>
       </c>
       <c r="E25" s="2">
-        <v>29.8460335067485</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
-        <v>29.8460335067485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2">
-        <v>0.397534327540081</v>
+        <v>24.9397924881983</v>
       </c>
       <c r="E26" s="2">
-        <v>0.387456729691634</v>
+        <v>29.8460335067485</v>
       </c>
       <c r="F26" s="2">
-        <v>0.387456729691634</v>
+        <v>29.8460335067485</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5"/>
       <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2">
-        <v>310.534232585119</v>
+        <v>0.397534327540081</v>
       </c>
       <c r="E27" s="2">
-        <v>311.826319322442</v>
+        <v>0.387456729691634</v>
       </c>
       <c r="F27" s="2">
-        <v>311.826319322442</v>
+        <v>0.387456729691634</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5"/>
       <c r="B28" s="7"/>
       <c r="C28" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D28" s="2">
-        <v>0.2</v>
+        <v>310.534232585119</v>
       </c>
       <c r="E28" s="2">
-        <v>0.278960201647951</v>
+        <v>311.826319322442</v>
       </c>
       <c r="F28" s="2">
-        <v>0.278960201647951</v>
+        <v>311.826319322442</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5"/>
       <c r="B29" s="7"/>
       <c r="C29" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D29" s="2">
-        <v>9592.88212951047</v>
+        <v>0.2</v>
       </c>
       <c r="E29" s="2">
-        <v>13728.6250951821</v>
+        <v>0.278960201647951</v>
       </c>
       <c r="F29" s="2">
-        <v>13728.6250951821</v>
+        <v>0.278960201647951</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5"/>
       <c r="B30" s="7"/>
       <c r="C30" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2">
-        <v>6.98593533053798</v>
+        <v>9592.88212951047</v>
       </c>
       <c r="E30" s="2">
-        <v>4.86670380638896</v>
+        <v>13728.6250951821</v>
       </c>
       <c r="F30" s="2">
-        <v>4.86670380638896</v>
+        <v>13728.6250951821</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5"/>
       <c r="B31" s="7"/>
       <c r="C31" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2">
-        <v>0.360322324557323</v>
+        <v>6.98593533053798</v>
       </c>
       <c r="E31" s="2">
-        <v>0.432635531364102</v>
+        <v>4.86670380638896</v>
       </c>
       <c r="F31" s="2">
-        <v>0.432635531364102</v>
+        <v>4.86670380638896</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5"/>
       <c r="B32" s="7"/>
       <c r="C32" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D32" s="2">
-        <v>235.360704664796</v>
+        <v>0.360322324557323</v>
       </c>
       <c r="E32" s="2">
-        <v>208.806759033595</v>
+        <v>0.432635531364102</v>
       </c>
       <c r="F32" s="2">
-        <v>208.806759033595</v>
+        <v>0.432635531364102</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5"/>
       <c r="B33" s="7"/>
       <c r="C33" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D33" s="2">
-        <v>3620.84483241631</v>
+        <v>235.360704664796</v>
       </c>
       <c r="E33" s="2">
-        <v>2311.15858694705</v>
+        <v>208.806759033595</v>
       </c>
       <c r="F33" s="2">
-        <v>2311.15858694705</v>
+        <v>208.806759033595</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5"/>
       <c r="B34" s="7"/>
       <c r="C34" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D34" s="2">
-        <v>1.13373577673032</v>
+        <v>3620.84483241631</v>
       </c>
       <c r="E34" s="2">
-        <v>2.42581799694202</v>
+        <v>2311.15858694705</v>
       </c>
       <c r="F34" s="2">
-        <v>2.42581799694202</v>
+        <v>2311.15858694705</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5"/>
       <c r="B35" s="7"/>
       <c r="C35" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D35" s="2">
-        <v>0.675758774397529</v>
+        <v>1.13373577673032</v>
       </c>
       <c r="E35" s="2">
-        <v>0.517120004340175</v>
+        <v>2.42581799694202</v>
       </c>
       <c r="F35" s="2">
-        <v>0.517120004340175</v>
+        <v>2.42581799694202</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="5"/>
       <c r="B36" s="7"/>
       <c r="C36" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D36" s="2">
-        <v>3.8387980542433</v>
+        <v>0.675758774397529</v>
       </c>
       <c r="E36" s="2">
-        <v>1.87763390038708</v>
+        <v>0.517120004340175</v>
       </c>
       <c r="F36" s="2">
-        <v>1.87763390038708</v>
+        <v>0.517120004340175</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="5"/>
       <c r="B37" s="7"/>
       <c r="C37" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D37" s="2">
-        <v>1.2</v>
+        <v>3.8387980542433</v>
       </c>
       <c r="E37" s="2">
-        <v>3.2</v>
+        <v>1.87763390038708</v>
       </c>
       <c r="F37" s="2">
-        <v>3.1</v>
+        <v>1.87763390038708</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5"/>
       <c r="B38" s="7"/>
       <c r="C38" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D38" s="2">
-        <v>2351.03585576092</v>
+        <v>1.2</v>
       </c>
       <c r="E38" s="2">
-        <v>2600</v>
+        <v>3.2</v>
       </c>
       <c r="F38" s="2">
-        <v>2600</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="5"/>
       <c r="B39" s="7"/>
       <c r="C39" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D39" s="2">
-        <v>479.564279785433</v>
+        <v>2351.03585576092</v>
       </c>
       <c r="E39" s="2">
-        <v>342.07526272382</v>
+        <v>2600</v>
       </c>
       <c r="F39" s="2">
-        <v>342.07526272382</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="5"/>
       <c r="B40" s="7"/>
       <c r="C40" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D40" s="2">
-        <v>1.5209241133552</v>
+        <v>479.564279785433</v>
       </c>
       <c r="E40" s="2">
-        <v>1.4611356146706</v>
+        <v>342.07526272382</v>
       </c>
       <c r="F40" s="2">
-        <v>1.4611356146706</v>
+        <v>342.07526272382</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="5"/>
       <c r="B41" s="7"/>
       <c r="C41" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D41" s="2">
-        <v>148.023377589456</v>
+        <v>1.5209241133552</v>
       </c>
       <c r="E41" s="2">
-        <v>90</v>
+        <v>1.4611356146706</v>
       </c>
       <c r="F41" s="2">
-        <v>90</v>
+        <v>1.4611356146706</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="5"/>
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D42" s="2">
-        <v>4000000</v>
+        <v>148</v>
       </c>
       <c r="E42" s="2">
-        <v>4000000</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2">
-        <v>4000000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D43" s="2">
-        <v>12000000</v>
+        <v>4000000</v>
       </c>
       <c r="E43" s="2">
-        <v>13000000</v>
+        <v>4000000</v>
       </c>
       <c r="F43" s="2">
-        <v>13000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="5"/>
       <c r="B44" s="7"/>
       <c r="C44" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="E44" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="F44" s="2">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="2">
         <v>1</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E45" s="2">
         <v>2</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F45" s="2">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="B10:B24"/>
-    <mergeCell ref="B25:B44"/>
-    <mergeCell ref="A10:A44"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A1:A10"/>
+    <mergeCell ref="B11:B25"/>
+    <mergeCell ref="B26:B45"/>
+    <mergeCell ref="A11:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1401,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1412,784 +1448,788 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
         <v>13000</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E2" s="2">
         <v>15000</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F2" s="2">
         <v>15000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>437.9868104763462</v>
-      </c>
-      <c r="E2" s="2">
-        <v>615.9716029779664</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1443.85660693182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>437.9868104763462</v>
+      </c>
+      <c r="E3" s="2">
+        <v>615.9716029779664</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1443.85660693182</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3"/>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>80.45939065864653</v>
-      </c>
-      <c r="E4" s="2">
-        <v>223.5693381334245</v>
-      </c>
-      <c r="F4" s="2">
-        <v>222.887962594786</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
-        <v>88.49121272889445</v>
+        <v>80.45939065864653</v>
       </c>
       <c r="E5" s="2">
-        <v>124.45140549963</v>
+        <v>223.5693381334245</v>
       </c>
       <c r="F5" s="2">
-        <v>291.7179675229595</v>
+        <v>222.887962594786</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
-        <v>119.4414283846072</v>
+        <v>88.49121272889445</v>
       </c>
       <c r="E6" s="2">
-        <v>8</v>
+        <v>124.45140549963</v>
       </c>
       <c r="F6" s="2">
-        <v>31.96121308511738</v>
+        <v>291.7179675229595</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
-        <v>0.4590328693389893</v>
+        <v>119.4225647920971</v>
       </c>
       <c r="E7" s="2">
-        <v>0.06757307052612305</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2">
-        <v>0.06828975677490234</v>
+        <v>31.96121308511738</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>54.82754158933363</v>
+        <v>0.4590297222137452</v>
       </c>
       <c r="E8" s="2">
-        <v>0.5405845642089844</v>
+        <v>0.06757307052612305</v>
       </c>
       <c r="F8" s="2">
-        <v>2.182623467813492</v>
+        <v>0.06828975677490234</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>24.19958007275333</v>
+        <v>54.81850674256932</v>
       </c>
       <c r="E9" s="2">
-        <v>136.0655020108048</v>
+        <v>0.5405845642089844</v>
       </c>
       <c r="F9" s="2">
-        <v>209.8344774720564</v>
+        <v>2.182623467813492</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>24.20077653121073</v>
+      </c>
+      <c r="E10" s="2">
+        <v>136.0655020108048</v>
+      </c>
+      <c r="F10" s="2">
+        <v>209.8344774720564</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.491530641913414</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.1163399890065193</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.1163981407880783</v>
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
-        <v>58.70912196494103</v>
+        <v>0.4915244460105897</v>
       </c>
       <c r="E12" s="2">
-        <v>0.9307199120521544</v>
+        <v>0.1163399666547775</v>
       </c>
       <c r="F12" s="2">
-        <v>3.720225780439264</v>
+        <v>0.1163981556892395</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
-        <v>23.70804736398622</v>
+        <v>58.69911000059928</v>
       </c>
       <c r="E13" s="2">
-        <v>115.6009542115067</v>
+        <v>0.9307197332382202</v>
       </c>
       <c r="F13" s="2">
-        <v>178.8132532001552</v>
+        <v>3.720226256698451</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="b">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D14" s="2">
+        <v>23.70926041452218</v>
+      </c>
+      <c r="E14" s="2">
+        <v>115.6009608744341</v>
+      </c>
+      <c r="F14" s="2">
+        <v>178.8132463327133</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
         <v>13000</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>15000</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <v>15000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2">
-        <v>437.9868104763462</v>
-      </c>
-      <c r="E16" s="2">
-        <v>615.9716029779664</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1443.85660693182</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3"/>
       <c r="B17" s="6"/>
       <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="b">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>437.9868104763462</v>
+      </c>
+      <c r="E17" s="2">
+        <v>615.9716029779664</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1443.85660693182</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3"/>
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2">
-        <v>156.9895511392658</v>
-      </c>
-      <c r="E18" s="2">
-        <v>258.1390307904477</v>
-      </c>
-      <c r="F18" s="2">
-        <v>258.8204063290863</v>
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2">
-        <v>88.49121272889445</v>
+        <v>156.9895511392658</v>
       </c>
       <c r="E19" s="2">
-        <v>124.45140549963</v>
+        <v>258.1390307904477</v>
       </c>
       <c r="F19" s="2">
-        <v>291.7179675229595</v>
+        <v>258.8204063290863</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
       <c r="C20" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2">
-        <v>119.4414283846072</v>
+        <v>88.49121272889445</v>
       </c>
       <c r="E20" s="2">
-        <v>8</v>
+        <v>124.45140549963</v>
       </c>
       <c r="F20" s="2">
-        <v>31.96121308511738</v>
+        <v>291.7179675229595</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3"/>
       <c r="B21" s="7"/>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2">
-        <v>0.1827430725097657</v>
+        <v>119.4225647920971</v>
       </c>
       <c r="E21" s="2">
-        <v>0.0281226634979248</v>
+        <v>8</v>
       </c>
       <c r="F21" s="2">
-        <v>0.02765798568725586</v>
+        <v>31.96121308511738</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="7"/>
       <c r="C22" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2">
-        <v>21.82709360795825</v>
+        <v>0.1827441215515137</v>
       </c>
       <c r="E22" s="2">
-        <v>0.2249813079833984</v>
+        <v>0.02812004089355469</v>
       </c>
       <c r="F22" s="2">
-        <v>0.8839827740555113</v>
+        <v>0.02766275405883789</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
       <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2">
-        <v>31.90132257067649</v>
+        <v>21.82377169636051</v>
       </c>
       <c r="E23" s="2">
-        <v>176.9958930844957</v>
+        <v>0.2249603271484375</v>
       </c>
       <c r="F23" s="2">
-        <v>275.1929813552968</v>
+        <v>0.8841351769957135</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="7"/>
       <c r="C24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D24" s="2">
+        <v>31.90277925373234</v>
+      </c>
+      <c r="E24" s="2">
+        <v>177.0008451582094</v>
+      </c>
+      <c r="F24" s="2">
+        <v>275.1787495666083</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="7"/>
       <c r="C25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.2099792122840881</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.06478920578956604</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.06396577507257462</v>
+        <v>21</v>
+      </c>
+      <c r="D25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="7"/>
       <c r="C26" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2">
-        <v>25.08021704628614</v>
+        <v>0.2099768191576004</v>
       </c>
       <c r="E26" s="2">
-        <v>0.5183136463165283</v>
+        <v>0.06478658318519592</v>
       </c>
       <c r="F26" s="2">
-        <v>2.044423767249247</v>
+        <v>0.06397052109241486</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2">
-        <v>30.59905925286444</v>
+        <v>25.07597029068699</v>
       </c>
       <c r="E27" s="2">
-        <v>137.7936891246582</v>
+        <v>0.5182926654815674</v>
       </c>
       <c r="F27" s="2">
-        <v>213.9928277030956</v>
+        <v>2.044575455800667</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="7"/>
       <c r="C28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="b">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2">
+        <v>30.60061379719021</v>
+      </c>
+      <c r="E28" s="2">
+        <v>137.7953624952553</v>
+      </c>
+      <c r="F28" s="2">
+        <v>213.9880646940005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2">
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2">
         <v>20000</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="2">
         <v>15000</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F30" s="2">
         <v>15000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2">
-        <v>349.1604037598423</v>
-      </c>
-      <c r="E30" s="2">
-        <v>491.0487906393227</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1181.932505901104</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="6"/>
       <c r="C31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2" t="b">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D31" s="2">
+        <v>349.1604037598423</v>
+      </c>
+      <c r="E31" s="2">
+        <v>491.0487906393227</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1181.932505901104</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3"/>
-      <c r="B32" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2">
-        <v>156.9895511392658</v>
-      </c>
-      <c r="E32" s="2">
-        <v>258.1390307904477</v>
-      </c>
-      <c r="F32" s="2">
-        <v>258.8204063290863</v>
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3"/>
-      <c r="B33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="C33" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2">
-        <v>70.54465300453958</v>
+        <v>156.9895511392658</v>
       </c>
       <c r="E33" s="2">
-        <v>99.21189851692439</v>
+        <v>258.1390307904477</v>
       </c>
       <c r="F33" s="2">
-        <v>238.7986083351211</v>
+        <v>258.8204063290863</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2">
-        <v>7.5</v>
+        <v>70.54465300453958</v>
       </c>
       <c r="E34" s="2">
-        <v>8.125</v>
+        <v>99.21189851692439</v>
       </c>
       <c r="F34" s="2">
-        <v>8.125</v>
+        <v>238.7986083351211</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
       <c r="C35" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2">
-        <v>0.2177794933319092</v>
+        <v>7.5</v>
       </c>
       <c r="E35" s="2">
-        <v>0.03665781021118164</v>
+        <v>8.125</v>
       </c>
       <c r="F35" s="2">
-        <v>0.03674960136413574</v>
+        <v>8.125</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
       <c r="C36" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2">
-        <v>1.633346199989319</v>
+        <v>0.2177831649780274</v>
       </c>
       <c r="E36" s="2">
-        <v>0.2978447079658508</v>
+        <v>0.0366588830947876</v>
       </c>
       <c r="F36" s="2">
-        <v>0.2985905110836029</v>
+        <v>0.03674948215484619</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="7"/>
       <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2">
-        <v>55.35386401451498</v>
+        <v>1.633373737335205</v>
       </c>
       <c r="E37" s="2">
-        <v>129.7101939713239</v>
+        <v>0.2978534251451492</v>
       </c>
       <c r="F37" s="2">
-        <v>311.9724946265205</v>
+        <v>0.2985895425081253</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="7"/>
       <c r="C38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D38" s="2">
+        <v>55.35358404659475</v>
+      </c>
+      <c r="E38" s="2">
+        <v>129.7090551038429</v>
+      </c>
+      <c r="F38" s="2">
+        <v>311.9727982224492</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="7"/>
       <c r="C39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.3037856727838517</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.1420809924602509</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.1406422555446625</v>
+        <v>21</v>
+      </c>
+      <c r="D39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" s="7"/>
       <c r="C40" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2">
-        <v>2.278392545878888</v>
+        <v>0.3037861645221711</v>
       </c>
       <c r="E40" s="2">
-        <v>1.154408063739538</v>
+        <v>0.1420820653438568</v>
       </c>
       <c r="F40" s="2">
-        <v>1.142718326300383</v>
+        <v>0.1406421363353729</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" s="7"/>
       <c r="C41" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D41" s="2">
-        <v>50.09367007459512</v>
+        <v>2.278396233916283</v>
       </c>
       <c r="E41" s="2">
-        <v>86.38995935762931</v>
+        <v>1.154416780918837</v>
       </c>
       <c r="F41" s="2">
-        <v>208.572644980173</v>
+        <v>1.142717357724905</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3"/>
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2" t="b">
+        <v>24</v>
+      </c>
+      <c r="D42" s="2">
+        <v>50.09364574861129</v>
+      </c>
+      <c r="E42" s="2">
+        <v>86.38976365393681</v>
+      </c>
+      <c r="F42" s="2">
+        <v>208.5726980164609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="6" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -2205,55 +2245,55 @@
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F49" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D50" s="2">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="E50" s="2">
-        <v>0.005</v>
+        <v>10</v>
       </c>
       <c r="F50" s="2">
-        <v>0.005</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D51" s="2">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E51" s="2">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F51" s="2">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D52" s="2">
         <v>0</v>
@@ -2269,26 +2309,26 @@
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D53" s="2">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="E53" s="2">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="E54" s="2">
         <v>15000</v>
@@ -2301,29 +2341,29 @@
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E55" s="2">
-        <v>8</v>
+        <v>15000</v>
       </c>
       <c r="F55" s="2">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
       </c>
       <c r="E56" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
@@ -2333,354 +2373,370 @@
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D57" s="2">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5"/>
-      <c r="B58" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="B58" s="6"/>
       <c r="C58" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D58" s="2">
-        <v>24.9397924881983</v>
+        <v>1.1</v>
       </c>
       <c r="E58" s="2">
-        <v>29.8460335067485</v>
+        <v>1</v>
       </c>
       <c r="F58" s="2">
-        <v>29.8460335067485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5"/>
-      <c r="B59" s="7"/>
+      <c r="B59" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="C59" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D59" s="2">
-        <v>0.397534327540081</v>
+        <v>24.9397924881983</v>
       </c>
       <c r="E59" s="2">
-        <v>0.387456729691634</v>
+        <v>29.8460335067485</v>
       </c>
       <c r="F59" s="2">
-        <v>0.387456729691634</v>
+        <v>29.8460335067485</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="5"/>
       <c r="B60" s="7"/>
       <c r="C60" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D60" s="2">
-        <v>310.534232585119</v>
+        <v>0.397534327540081</v>
       </c>
       <c r="E60" s="2">
-        <v>311.826319322442</v>
+        <v>0.387456729691634</v>
       </c>
       <c r="F60" s="2">
-        <v>311.826319322442</v>
+        <v>0.387456729691634</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="5"/>
       <c r="B61" s="7"/>
       <c r="C61" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D61" s="2">
-        <v>0.2</v>
+        <v>310.534232585119</v>
       </c>
       <c r="E61" s="2">
-        <v>0.278960201647951</v>
+        <v>311.826319322442</v>
       </c>
       <c r="F61" s="2">
-        <v>0.278960201647951</v>
+        <v>311.826319322442</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="5"/>
       <c r="B62" s="7"/>
       <c r="C62" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D62" s="2">
-        <v>9592.88212951047</v>
+        <v>0.2</v>
       </c>
       <c r="E62" s="2">
-        <v>13728.6250951821</v>
+        <v>0.278960201647951</v>
       </c>
       <c r="F62" s="2">
-        <v>13728.6250951821</v>
+        <v>0.278960201647951</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5"/>
       <c r="B63" s="7"/>
       <c r="C63" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D63" s="2">
-        <v>6.98593533053798</v>
+        <v>9592.88212951047</v>
       </c>
       <c r="E63" s="2">
-        <v>4.86670380638896</v>
+        <v>13728.6250951821</v>
       </c>
       <c r="F63" s="2">
-        <v>4.86670380638896</v>
+        <v>13728.6250951821</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5"/>
       <c r="B64" s="7"/>
       <c r="C64" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D64" s="2">
-        <v>0.360322324557323</v>
+        <v>6.98593533053798</v>
       </c>
       <c r="E64" s="2">
-        <v>0.432635531364102</v>
+        <v>4.86670380638896</v>
       </c>
       <c r="F64" s="2">
-        <v>0.432635531364102</v>
+        <v>4.86670380638896</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="5"/>
       <c r="B65" s="7"/>
       <c r="C65" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D65" s="2">
-        <v>235.360704664796</v>
+        <v>0.360322324557323</v>
       </c>
       <c r="E65" s="2">
-        <v>208.806759033595</v>
+        <v>0.432635531364102</v>
       </c>
       <c r="F65" s="2">
-        <v>208.806759033595</v>
+        <v>0.432635531364102</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="5"/>
       <c r="B66" s="7"/>
       <c r="C66" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D66" s="2">
-        <v>3620.84483241631</v>
+        <v>235.360704664796</v>
       </c>
       <c r="E66" s="2">
-        <v>2311.15858694705</v>
+        <v>208.806759033595</v>
       </c>
       <c r="F66" s="2">
-        <v>2311.15858694705</v>
+        <v>208.806759033595</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="5"/>
       <c r="B67" s="7"/>
       <c r="C67" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D67" s="2">
-        <v>1.13373577673032</v>
+        <v>3620.84483241631</v>
       </c>
       <c r="E67" s="2">
-        <v>2.42581799694202</v>
+        <v>2311.15858694705</v>
       </c>
       <c r="F67" s="2">
-        <v>2.42581799694202</v>
+        <v>2311.15858694705</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5"/>
       <c r="B68" s="7"/>
       <c r="C68" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D68" s="2">
-        <v>0.675758774397529</v>
+        <v>1.13373577673032</v>
       </c>
       <c r="E68" s="2">
-        <v>0.517120004340175</v>
+        <v>2.42581799694202</v>
       </c>
       <c r="F68" s="2">
-        <v>0.517120004340175</v>
+        <v>2.42581799694202</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="5"/>
       <c r="B69" s="7"/>
       <c r="C69" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D69" s="2">
-        <v>3.8387980542433</v>
+        <v>0.675758774397529</v>
       </c>
       <c r="E69" s="2">
-        <v>1.87763390038708</v>
+        <v>0.517120004340175</v>
       </c>
       <c r="F69" s="2">
-        <v>1.87763390038708</v>
+        <v>0.517120004340175</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="5"/>
       <c r="B70" s="7"/>
       <c r="C70" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D70" s="2">
-        <v>1.2</v>
+        <v>3.8387980542433</v>
       </c>
       <c r="E70" s="2">
-        <v>3.2</v>
+        <v>1.87763390038708</v>
       </c>
       <c r="F70" s="2">
-        <v>3.1</v>
+        <v>1.87763390038708</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="5"/>
       <c r="B71" s="7"/>
       <c r="C71" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D71" s="2">
-        <v>2351.03585576092</v>
+        <v>1.2</v>
       </c>
       <c r="E71" s="2">
-        <v>2600</v>
+        <v>3.2</v>
       </c>
       <c r="F71" s="2">
-        <v>2600</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="5"/>
       <c r="B72" s="7"/>
       <c r="C72" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D72" s="2">
-        <v>479.564279785433</v>
+        <v>2351.03585576092</v>
       </c>
       <c r="E72" s="2">
-        <v>342.07526272382</v>
+        <v>2600</v>
       </c>
       <c r="F72" s="2">
-        <v>342.07526272382</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="5"/>
       <c r="B73" s="7"/>
       <c r="C73" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D73" s="2">
-        <v>1.5209241133552</v>
+        <v>479.564279785433</v>
       </c>
       <c r="E73" s="2">
-        <v>1.4611356146706</v>
+        <v>342.07526272382</v>
       </c>
       <c r="F73" s="2">
-        <v>1.4611356146706</v>
+        <v>342.07526272382</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="5"/>
       <c r="B74" s="7"/>
       <c r="C74" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D74" s="2">
-        <v>148.023377589456</v>
+        <v>1.5209241133552</v>
       </c>
       <c r="E74" s="2">
-        <v>90</v>
+        <v>1.4611356146706</v>
       </c>
       <c r="F74" s="2">
-        <v>90</v>
+        <v>1.4611356146706</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="5"/>
       <c r="B75" s="7"/>
       <c r="C75" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D75" s="2">
-        <v>4000000</v>
+        <v>148</v>
       </c>
       <c r="E75" s="2">
-        <v>4000000</v>
+        <v>90</v>
       </c>
       <c r="F75" s="2">
-        <v>4000000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="5"/>
       <c r="B76" s="7"/>
       <c r="C76" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D76" s="2">
-        <v>12000000</v>
+        <v>4000000</v>
       </c>
       <c r="E76" s="2">
-        <v>13000000</v>
+        <v>4000000</v>
       </c>
       <c r="F76" s="2">
-        <v>13000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="5"/>
       <c r="B77" s="7"/>
       <c r="C77" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D77" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="E77" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="F77" s="2">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="5"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="2">
         <v>1</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E78" s="2">
         <v>2</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F78" s="2">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="A1:A14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B28"/>
-    <mergeCell ref="A15:A28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="A29:A42"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="B58:B77"/>
-    <mergeCell ref="A43:A77"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B29"/>
+    <mergeCell ref="A16:A29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B43"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B44:B58"/>
+    <mergeCell ref="B59:B78"/>
+    <mergeCell ref="A44:A78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
